--- a/Capstone_Real_Estate_Profits_Data_Analytics/3.7Normalized_Data_and_Model.xlsx
+++ b/Capstone_Real_Estate_Profits_Data_Analytics/3.7Normalized_Data_and_Model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/332dbdf67b1791cd/Study/mySQL/Coursera_Managing_Big_Data_with_MySQL/Capstone_Real_Estate_Profits_Data_Analytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="11_4951EE6BD8A04909E52974194E52283787DF20D5" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{3ED24F5F-4206-461C-B8CF-0042959E0420}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="11_4951EE6BD8A04909E52974194E52283787DF20D5" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{4842B241-0617-46E4-9E86-E71F69A54FC1}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="504" windowWidth="23040" windowHeight="7992" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1008" windowWidth="23040" windowHeight="7992" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Normalized Data and Model" sheetId="2" r:id="rId1"/>
@@ -3490,7 +3490,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8659091" cy="6286500"/>
+    <xdr:ext cx="8659906" cy="6284259"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -3843,7 +3843,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT247"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3923,10 +3925,10 @@
       </c>
       <c r="O2" s="13"/>
       <c r="P2" s="2">
+        <v>-0.79169999999999996</v>
+      </c>
+      <c r="Q2" s="2">
         <v>0.85070000000000001</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>-0.79169999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:46" s="8" customFormat="1" x14ac:dyDescent="0.3">
